--- a/pred_ohlcv/54_21/2019-11-02 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 XEM ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-93792.10570000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-93782.10570000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-93782.10570000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-93782.10570000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-94551.04080000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-38440.69180000002</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-15410.85350000002</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-15729.37820000002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-28245.72500000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>190670.1284</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>190038.6447</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>179930.5581</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>179930.5581</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>207017.32186342</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>218913.61376342</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>211959.56626342</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>208092.56626342</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>208092.56626342</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>190898.03926342</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>171864.86846342</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>190253.75896342</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>188711.37216342</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>201711.37216342</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>214582.11316342</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>182182.11316342</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>182472.68266342</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>182472.68266342</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>187502.68266342</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>187502.68266342</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>187485.68266342</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>191361.66196342</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>165953.80086342</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>169970.89466342</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>169970.89466342</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>140796.6664510901</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>84370.85125109008</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 XEM ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-38440.69180000002</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-15410.85350000002</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-15729.37820000002</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-28245.72500000001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>173039.8419</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>168750.8419</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>190670.1284</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>190670.1284</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>190038.6447</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>179930.5581</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>179930.5581</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>207017.32186342</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>218913.61376342</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>211959.56626342</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>208092.56626342</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>208092.56626342</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>190898.03926342</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>171864.86846342</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>182182.11316342</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
